--- a/addons/Sales/backend/resources/excel/国际批发订单模板导入.xlsx
+++ b/addons/Sales/backend/resources/excel/国际批发订单模板导入.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
@@ -10,16 +10,11 @@
     <sheet name="国际批发订单01" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>已支付金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,10 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>国际批发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>材质</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,10 +85,6 @@
   </si>
   <si>
     <t>主石重(ct）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -125,15 +112,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020-08-07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>格式如: 2020-08-07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>English</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -185,10 +164,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>USD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -374,10 +349,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>默认：0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>订单总金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -408,6 +379,40 @@
   <si>
     <t xml:space="preserve">   默认：0
 （请填写数字）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应erp尺寸：如：链长等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请从以下挑选：1个属性值 【钻石,立方氧化锆,锆石,莫桑石,红宝石,蓝宝石,宝石,玉石,和田玉,翡翠,珍珠,贝母,青金石,珊瑚,砗磲,晶石(水晶),猫眼石,松石,玉髓,紫牙乌,橄榄石,彩虹石,月光石,碧玺,欧泊,树脂,黄虎石,玛瑙,金砂石,贝珠,琥珀,石榴石,拖帕石,陶瓷,葡萄石,蜜蜡,其它】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主石类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请从以下挑选：1个属性值【钻石,立方氧化锆,锆石,莫桑石,红宝石,蓝宝石,宝石,玉石,和田玉,翡翠,珍珠,贝母,青金石,珊瑚,砗磲,晶石(水晶),猫眼石,松石,玉髓,紫牙乌,橄榄石,彩虹石,月光石,碧玺,欧泊,树脂,黄虎石,玛瑙,金砂石,贝珠,琥珀,石榴石,拖帕石,陶瓷,葡萄石,蜜蜡,其它】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副石1类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请填写数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    请填写数字
+（请填写数字）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品实际成交金额
+(请填写数字)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,14 +503,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -772,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF7"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Z4" sqref="Z4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -790,116 +787,132 @@
     <col min="9" max="9" width="17.25" customWidth="1"/>
     <col min="10" max="10" width="13.25" customWidth="1"/>
     <col min="11" max="11" width="16.875" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="12" max="12" width="20.625" customWidth="1"/>
     <col min="13" max="13" width="15.875" customWidth="1"/>
     <col min="14" max="14" width="19.75" customWidth="1"/>
     <col min="15" max="15" width="16" customWidth="1"/>
     <col min="16" max="16" width="17.625" customWidth="1"/>
     <col min="17" max="17" width="12.5" customWidth="1"/>
-    <col min="18" max="18" width="13.625" customWidth="1"/>
+    <col min="18" max="18" width="16.375" customWidth="1"/>
     <col min="19" max="19" width="18.25" customWidth="1"/>
     <col min="20" max="20" width="20.375" customWidth="1"/>
     <col min="21" max="21" width="17.75" customWidth="1"/>
-    <col min="22" max="22" width="12.125" customWidth="1"/>
-    <col min="23" max="23" width="16.5" customWidth="1"/>
-    <col min="24" max="24" width="17.625" customWidth="1"/>
-    <col min="25" max="25" width="19.125" customWidth="1"/>
-    <col min="26" max="26" width="17.25" customWidth="1"/>
-    <col min="27" max="28" width="16.375" customWidth="1"/>
-    <col min="29" max="29" width="16.5" customWidth="1"/>
-    <col min="30" max="30" width="12" customWidth="1"/>
-    <col min="31" max="31" width="11.25" customWidth="1"/>
+    <col min="22" max="22" width="15" customWidth="1"/>
+    <col min="23" max="23" width="14.625" customWidth="1"/>
+    <col min="24" max="24" width="16.5" customWidth="1"/>
+    <col min="25" max="25" width="17.625" customWidth="1"/>
+    <col min="26" max="26" width="19.125" customWidth="1"/>
+    <col min="27" max="27" width="17.25" customWidth="1"/>
+    <col min="28" max="30" width="16.375" customWidth="1"/>
+    <col min="31" max="31" width="16.5" customWidth="1"/>
+    <col min="32" max="32" width="12" customWidth="1"/>
+    <col min="33" max="33" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" ht="106.5" customHeight="1">
+    <row r="1" spans="1:34" s="1" customFormat="1" ht="106.5" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>56</v>
-      </c>
     </row>
-    <row r="2" spans="1:32" ht="22.5" customHeight="1">
+    <row r="2" spans="1:34" ht="22.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>0</v>
@@ -914,87 +927,72 @@
         <v>2</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="V2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Y2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AF2" s="2" t="s">
-        <v>30</v>
+      <c r="AH2" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="20.25" customHeight="1">
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" ht="20.25" customHeight="1"/>
-    <row r="5" spans="1:32" ht="21" customHeight="1"/>
-    <row r="6" spans="1:32" ht="27" customHeight="1"/>
-    <row r="7" spans="1:32" ht="21.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/addons/Sales/backend/resources/excel/国际批发订单模板导入.xlsx
+++ b/addons/Sales/backend/resources/excel/国际批发订单模板导入.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>已支付金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25,10 +25,6 @@
   </si>
   <si>
     <t>客户邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户手机号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -183,7 +179,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>商品数量</t>
+      <t>销售渠道</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,8 +203,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>销售渠道</t>
-    </r>
+      <t>款号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -228,52 +228,167 @@
         <sz val="11"/>
         <color theme="0"/>
         <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>款号</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
+      <t>商品价格</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副石1重(ct)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手寸(美号)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手寸(港号)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>商品价格</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副石1重(ct)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手寸(美号)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手寸(港号)</t>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>订单编号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERP系统账号名，不填默认当前操作人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请填写【国际批发】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连石重(商品重量)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一个订单编号的商品视为一个订单，系统会自动合商品并且生成新订单号】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 请从以下挑选：1个属性值【4,5,6,7,8,9,10,11,12,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,3,27,28,29,30,31,32,33,开口】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 请从以下挑选：1个属性值【1,1.5,2,2.5,3,3.5,4,4.5,5,5.5,6,6.5,7,7.5,8,8.5,9,9.5,10,10.5,11,11.5,12,12.5,13,13.5,14,14.5,15,16,16.5,17,开口】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 请从以下挑选：1个【D,E,F,G,H,GH,I,J,K,IJ,L,M,N,不分级,其它】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  请从以下挑选：1个【FL,IF,VVS1,VVS2,VS1,VS2,SI1,SI2,SI,P1,P2,P3,不分级】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  请从以下挑选：1个属性值【1K,9K,10K,14K,18K,Au999,Au990,Au9999,Pt950,Pt900,Pt990,Pd,Ag925,Ag999,铜,合金,不锈钢】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  请从以下挑选：1个属性值【黄色,炫彩,黑色,三分色,白色,柠檬黄,红色,二分色,紫色】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请从以下挑选1个填写：【USD】【HKD】【TWD】【CNY】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请从以下挑选1个填写【中文简体】【中文繁体】【English】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单总金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单其它费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单总金额=商品总金额+订单其它费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请填写数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应erp副石1重，（请填写数字）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应erp主石金额（请填写数字）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   默认：0
+（请填写数字）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应erp尺寸：如：链长等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请从以下挑选：1个属性值 【钻石,立方氧化锆,锆石,莫桑石,红宝石,蓝宝石,宝石,玉石,和田玉,翡翠,珍珠,贝母,青金石,珊瑚,砗磲,晶石(水晶),猫眼石,松石,玉髓,紫牙乌,橄榄石,彩虹石,月光石,碧玺,欧泊,树脂,黄虎石,玛瑙,金砂石,贝珠,琥珀,石榴石,拖帕石,陶瓷,葡萄石,蜜蜡,其它】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主石类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请从以下挑选：1个属性值【钻石,立方氧化锆,锆石,莫桑石,红宝石,蓝宝石,宝石,玉石,和田玉,翡翠,珍珠,贝母,青金石,珊瑚,砗磲,晶石(水晶),猫眼石,松石,玉髓,紫牙乌,橄榄石,彩虹石,月光石,碧玺,欧泊,树脂,黄虎石,玛瑙,金砂石,贝珠,琥珀,石榴石,拖帕石,陶瓷,葡萄石,蜜蜡,其它】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副石1类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请填写数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    请填写数字
+（请填写数字）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品实际成交金额
+(请填写数字)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请填写数字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -296,123 +411,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>订单编号</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERP系统账号名，不填默认当前操作人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请填写【国际批发】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连石重(商品重量)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同一个订单编号的商品视为一个订单，系统会自动合商品并且生成新订单号】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 请从以下挑选：1个属性值【4,5,6,7,8,9,10,11,12,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,3,27,28,29,30,31,32,33,开口】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 请从以下挑选：1个属性值【1,1.5,2,2.5,3,3.5,4,4.5,5,5.5,6,6.5,7,7.5,8,8.5,9,9.5,10,10.5,11,11.5,12,12.5,13,13.5,14,14.5,15,16,16.5,17,开口】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 请从以下挑选：1个【D,E,F,G,H,GH,I,J,K,IJ,L,M,N,不分级,其它】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  请从以下挑选：1个【FL,IF,VVS1,VVS2,VS1,VS2,SI1,SI2,SI,P1,P2,P3,不分级】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  请从以下挑选：1个属性值【1K,9K,10K,14K,18K,Au999,Au990,Au9999,Pt950,Pt900,Pt990,Pd,Ag925,Ag999,铜,合金,不锈钢】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  请从以下挑选：1个属性值【黄色,炫彩,黑色,三分色,白色,柠檬黄,红色,二分色,紫色】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请从以下挑选1个填写：【USD】【HKD】【TWD】【CNY】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请从以下挑选1个填写【中文简体】【中文繁体】【English】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单总金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单其它费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单总金额=商品总金额+订单其它费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请填写数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应erp副石1重，（请填写数字）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应erp主石金额（请填写数字）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   默认：0
-（请填写数字）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应erp尺寸：如：链长等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请从以下挑选：1个属性值 【钻石,立方氧化锆,锆石,莫桑石,红宝石,蓝宝石,宝石,玉石,和田玉,翡翠,珍珠,贝母,青金石,珊瑚,砗磲,晶石(水晶),猫眼石,松石,玉髓,紫牙乌,橄榄石,彩虹石,月光石,碧玺,欧泊,树脂,黄虎石,玛瑙,金砂石,贝珠,琥珀,石榴石,拖帕石,陶瓷,葡萄石,蜜蜡,其它】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主石类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请从以下挑选：1个属性值【钻石,立方氧化锆,锆石,莫桑石,红宝石,蓝宝石,宝石,玉石,和田玉,翡翠,珍珠,贝母,青金石,珊瑚,砗磲,晶石(水晶),猫眼石,松石,玉髓,紫牙乌,橄榄石,彩虹石,月光石,碧玺,欧泊,树脂,黄虎石,玛瑙,金砂石,贝珠,琥珀,石榴石,拖帕石,陶瓷,葡萄石,蜜蜡,其它】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副石1类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请填写数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    请填写数字
-（请填写数字）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品实际成交金额
-(请填写数字)</t>
+      <t>商品数量</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -761,7 +761,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -769,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -786,211 +786,207 @@
     <col min="8" max="8" width="14.25" customWidth="1"/>
     <col min="9" max="9" width="17.25" customWidth="1"/>
     <col min="10" max="10" width="13.25" customWidth="1"/>
-    <col min="11" max="11" width="16.875" customWidth="1"/>
-    <col min="12" max="12" width="20.625" customWidth="1"/>
-    <col min="13" max="13" width="15.875" customWidth="1"/>
-    <col min="14" max="14" width="19.75" customWidth="1"/>
-    <col min="15" max="15" width="16" customWidth="1"/>
-    <col min="16" max="16" width="17.625" customWidth="1"/>
-    <col min="17" max="17" width="12.5" customWidth="1"/>
-    <col min="18" max="18" width="16.375" customWidth="1"/>
-    <col min="19" max="19" width="18.25" customWidth="1"/>
-    <col min="20" max="20" width="20.375" customWidth="1"/>
-    <col min="21" max="21" width="17.75" customWidth="1"/>
-    <col min="22" max="22" width="15" customWidth="1"/>
-    <col min="23" max="23" width="14.625" customWidth="1"/>
-    <col min="24" max="24" width="16.5" customWidth="1"/>
-    <col min="25" max="25" width="17.625" customWidth="1"/>
-    <col min="26" max="26" width="19.125" customWidth="1"/>
-    <col min="27" max="27" width="17.25" customWidth="1"/>
-    <col min="28" max="30" width="16.375" customWidth="1"/>
-    <col min="31" max="31" width="16.5" customWidth="1"/>
-    <col min="32" max="32" width="12" customWidth="1"/>
-    <col min="33" max="33" width="12.25" customWidth="1"/>
+    <col min="11" max="11" width="20.625" customWidth="1"/>
+    <col min="12" max="12" width="15.875" customWidth="1"/>
+    <col min="13" max="13" width="19.75" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="17.625" customWidth="1"/>
+    <col min="16" max="16" width="12.5" customWidth="1"/>
+    <col min="17" max="17" width="16.375" customWidth="1"/>
+    <col min="18" max="18" width="18.25" customWidth="1"/>
+    <col min="19" max="19" width="20.375" customWidth="1"/>
+    <col min="20" max="20" width="17.75" customWidth="1"/>
+    <col min="21" max="21" width="15" customWidth="1"/>
+    <col min="22" max="22" width="14.625" customWidth="1"/>
+    <col min="23" max="23" width="16.5" customWidth="1"/>
+    <col min="24" max="24" width="17.625" customWidth="1"/>
+    <col min="25" max="25" width="19.125" customWidth="1"/>
+    <col min="26" max="26" width="17.25" customWidth="1"/>
+    <col min="27" max="29" width="16.375" customWidth="1"/>
+    <col min="30" max="30" width="16.5" customWidth="1"/>
+    <col min="31" max="31" width="12" customWidth="1"/>
+    <col min="32" max="32" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="1" customFormat="1" ht="106.5" customHeight="1">
+    <row r="1" spans="1:33" s="1" customFormat="1" ht="106.5" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>50</v>
-      </c>
     </row>
-    <row r="2" spans="1:34" ht="22.5" customHeight="1">
+    <row r="2" spans="1:33" ht="22.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="AA2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="AG2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/addons/Sales/backend/resources/excel/国际批发订单模板导入.xlsx
+++ b/addons/Sales/backend/resources/excel/国际批发订单模板导入.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="国际批发订单01" sheetId="5" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="89">
   <si>
     <t>已支付金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,6 +156,30 @@
         <scheme val="minor"/>
       </rPr>
       <t>订单货币</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>商品数量</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -285,10 +309,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>同一个订单编号的商品视为一个订单，系统会自动合商品并且生成新订单号】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 请从以下挑选：1个属性值【4,5,6,7,8,9,10,11,12,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,3,27,28,29,30,31,32,33,开口】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -338,14 +358,6 @@
   </si>
   <si>
     <t>请填写数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应erp副石1重，（请填写数字）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应erp主石金额（请填写数字）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -354,10 +366,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对应erp尺寸：如：链长等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>请从以下挑选：1个属性值 【钻石,立方氧化锆,锆石,莫桑石,红宝石,蓝宝石,宝石,玉石,和田玉,翡翠,珍珠,贝母,青金石,珊瑚,砗磲,晶石(水晶),猫眼石,松石,玉髓,紫牙乌,橄榄石,彩虹石,月光石,碧玺,欧泊,树脂,黄虎石,玛瑙,金砂石,贝珠,琥珀,石榴石,拖帕石,陶瓷,葡萄石,蜜蜡,其它】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -375,11 +383,6 @@
   </si>
   <si>
     <t>请填写数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    请填写数字
-（请填写数字）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -388,31 +391,129 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>胡俊杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-08-07</t>
+  </si>
+  <si>
+    <t>2020-09-28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KB1912090-G</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>KB1912089-G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Au999</t>
+  </si>
+  <si>
+    <t>Pt950</t>
+  </si>
+  <si>
+    <t>柠檬黄</t>
+  </si>
+  <si>
+    <t>2*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉石</t>
+  </si>
+  <si>
+    <t>主石颜色：h，净度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还在喜欢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际批发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> English  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> USD  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中文简体  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CNY  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  黑色</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  P3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">钻石  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">宝石  </t>
+  </si>
+  <si>
+    <t>KB1912090-G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18K白金戒指测试1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18K白金戒指测试2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K00002255</t>
+  </si>
+  <si>
+    <t>K00002255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111@qq.com</t>
+  </si>
+  <si>
+    <t>如：链长等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>请填写数字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>商品数量</t>
-    </r>
+    <t xml:space="preserve">    请填写数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一个订单的填写相同订单号，系统会自动合并订单商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户会员ID和邮箱必填1个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 【English】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,7 +521,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,8 +559,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF76838F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,6 +590,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,10 +609,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -497,12 +625,29 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -769,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AG20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -788,7 +933,7 @@
     <col min="10" max="10" width="13.25" customWidth="1"/>
     <col min="11" max="11" width="20.625" customWidth="1"/>
     <col min="12" max="12" width="15.875" customWidth="1"/>
-    <col min="13" max="13" width="19.75" customWidth="1"/>
+    <col min="13" max="13" width="23.125" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
     <col min="15" max="15" width="17.625" customWidth="1"/>
     <col min="16" max="16" width="12.5" customWidth="1"/>
@@ -802,21 +947,23 @@
     <col min="24" max="24" width="17.625" customWidth="1"/>
     <col min="25" max="25" width="19.125" customWidth="1"/>
     <col min="26" max="26" width="17.25" customWidth="1"/>
-    <col min="27" max="29" width="16.375" customWidth="1"/>
+    <col min="27" max="27" width="16.375" customWidth="1"/>
+    <col min="28" max="28" width="20.875" customWidth="1"/>
+    <col min="29" max="29" width="16.375" customWidth="1"/>
     <col min="30" max="30" width="16.5" customWidth="1"/>
     <col min="31" max="31" width="12" customWidth="1"/>
     <col min="32" max="32" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="1" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>32</v>
+      <c r="A1" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>18</v>
@@ -836,6 +983,12 @@
       <c r="I1" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="J1" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>86</v>
+      </c>
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
@@ -846,10 +999,10 @@
         <v>38</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>34</v>
@@ -858,16 +1011,16 @@
         <v>33</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>35</v>
@@ -876,24 +1029,27 @@
         <v>36</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>48</v>
+      <c r="AE1" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="22.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -923,7 +1079,7 @@
         <v>2</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>10</v>
@@ -935,25 +1091,25 @@
         <v>15</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>16</v>
@@ -971,10 +1127,10 @@
         <v>12</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>4</v>
@@ -986,12 +1142,751 @@
         <v>8</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+      <c r="H3">
+        <v>10000</v>
+      </c>
+      <c r="I3">
+        <v>200</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" t="s">
+        <v>71</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>500</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>14</v>
+      </c>
+      <c r="U3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V3" t="s">
+        <v>63</v>
+      </c>
+      <c r="W3">
+        <v>0.5</v>
+      </c>
+      <c r="X3">
+        <v>2</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA3">
+        <v>5</v>
+      </c>
+      <c r="AC3">
+        <v>0.5</v>
+      </c>
+      <c r="AD3">
+        <v>2</v>
+      </c>
+      <c r="AE3">
+        <v>300</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+      <c r="H4">
+        <v>10000</v>
+      </c>
+      <c r="I4">
+        <v>1000</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>200</v>
+      </c>
+      <c r="S4">
+        <v>12</v>
+      </c>
+      <c r="V4" t="s">
+        <v>74</v>
+      </c>
+      <c r="W4">
+        <v>0.5</v>
+      </c>
+      <c r="X4">
+        <v>3</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA4">
+        <v>6</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" t="s">
+        <v>78</v>
+      </c>
+      <c r="N5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>500</v>
+      </c>
+      <c r="R5">
+        <v>4</v>
+      </c>
+      <c r="S5">
+        <v>11</v>
+      </c>
+      <c r="V5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA5">
+        <v>7</v>
+      </c>
+      <c r="AE5">
+        <v>200</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>500</v>
+      </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <v>10</v>
+      </c>
+      <c r="AA6">
+        <v>8</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC6">
+        <v>0.5</v>
+      </c>
+      <c r="AD6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>500</v>
+      </c>
+      <c r="R7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M8" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" s="9" customFormat="1">
+      <c r="A9" s="9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="9">
+        <v>200</v>
+      </c>
+      <c r="H9" s="9">
+        <v>10000</v>
+      </c>
+      <c r="I9" s="9">
+        <v>200</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>500</v>
+      </c>
+      <c r="R9" s="9">
+        <v>2</v>
+      </c>
+      <c r="S9" s="9">
+        <v>14</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="W9" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="X9" s="9">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z9" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA9" s="9">
+        <v>5</v>
+      </c>
+      <c r="AC9" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AD9" s="9">
+        <v>2</v>
+      </c>
+      <c r="AE9" s="9">
+        <v>300</v>
+      </c>
+      <c r="AF9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG9" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" s="9" customFormat="1">
+      <c r="A10" s="9">
+        <v>2</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="9">
+        <v>200</v>
+      </c>
+      <c r="H10" s="9">
+        <v>10000</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1000</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>200</v>
+      </c>
+      <c r="S10" s="9">
+        <v>12</v>
+      </c>
+      <c r="V10" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="W10" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="X10" s="9">
+        <v>3</v>
+      </c>
+      <c r="Y10" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA10" s="9">
+        <v>6</v>
+      </c>
+      <c r="AB10" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD10" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" s="9" customFormat="1">
+      <c r="A11" s="9">
+        <v>2</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="9">
+        <v>200</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>500</v>
+      </c>
+      <c r="R11" s="9">
+        <v>4</v>
+      </c>
+      <c r="S11" s="9">
+        <v>11</v>
+      </c>
+      <c r="V11" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA11" s="9">
+        <v>7</v>
+      </c>
+      <c r="AE11" s="9">
+        <v>200</v>
+      </c>
+      <c r="AF11" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" s="9" customFormat="1">
+      <c r="A12" s="9">
+        <v>2</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>500</v>
+      </c>
+      <c r="R12" s="9">
+        <v>5</v>
+      </c>
+      <c r="S12" s="9">
+        <v>10</v>
+      </c>
+      <c r="AA12" s="9">
+        <v>8</v>
+      </c>
+      <c r="AB12" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC12" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AD12" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" s="9" customFormat="1">
+      <c r="A13" s="9">
+        <v>2</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>500</v>
+      </c>
+      <c r="R13" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14">
+        <v>200</v>
+      </c>
+      <c r="H14">
+        <v>10000</v>
+      </c>
+      <c r="I14">
+        <v>200</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M14" t="s">
+        <v>77</v>
+      </c>
+      <c r="N14" t="s">
+        <v>57</v>
+      </c>
+      <c r="O14" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14">
+        <v>2</v>
+      </c>
+      <c r="Q14">
+        <v>500</v>
+      </c>
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <v>14</v>
+      </c>
+      <c r="U14" t="s">
+        <v>62</v>
+      </c>
+      <c r="V14" t="s">
+        <v>63</v>
+      </c>
+      <c r="W14">
+        <v>0.5</v>
+      </c>
+      <c r="X14">
+        <v>2</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA14">
+        <v>5</v>
+      </c>
+      <c r="AC14">
+        <v>0.5</v>
+      </c>
+      <c r="AD14">
+        <v>2</v>
+      </c>
+      <c r="AE14">
+        <v>300</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M15" t="s">
+        <v>77</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>100</v>
+      </c>
+      <c r="R15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8">
+      <c r="H20" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="L3" r:id="rId1" display="https://erp.bddco.cn/style/style/view?id=3128"/>
+    <hyperlink ref="L4" r:id="rId2" display="https://erp.bddco.cn/style/style/view?id=3026"/>
+    <hyperlink ref="L5" r:id="rId3" display="https://erp.bddco.cn/style/style/view?id=3026"/>
+    <hyperlink ref="L6" r:id="rId4" display="https://erp.bddco.cn/style/style/view?id=3026"/>
+    <hyperlink ref="L7" r:id="rId5" display="https://erp.bddco.cn/style/style/view?id=3026"/>
+    <hyperlink ref="L10" r:id="rId6" display="https://erp.bddco.cn/style/style/view?id=3026"/>
+    <hyperlink ref="L11" r:id="rId7" display="https://erp.bddco.cn/style/style/view?id=3026"/>
+    <hyperlink ref="L12" r:id="rId8" display="https://erp.bddco.cn/style/style/view?id=3026"/>
+    <hyperlink ref="L13" r:id="rId9" display="https://erp.bddco.cn/style/style/view?id=3026"/>
+    <hyperlink ref="L15" r:id="rId10" display="https://erp.bddco.cn/style/style/view?id=3026"/>
+    <hyperlink ref="L14" r:id="rId11" display="https://erp.bddco.cn/style/style/view?id=3026"/>
+    <hyperlink ref="L9" r:id="rId12" display="https://erp.bddco.cn/style/style/view?id=3026"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId13"/>
 </worksheet>
 </file>
--- a/addons/Sales/backend/resources/excel/国际批发订单模板导入.xlsx
+++ b/addons/Sales/backend/resources/excel/国际批发订单模板导入.xlsx
@@ -232,6 +232,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>副石1重(ct)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手寸(美号)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手寸(港号)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -248,170 +260,157 @@
         <sz val="11"/>
         <color theme="0"/>
         <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>订单编号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERP系统账号名，不填默认当前操作人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请填写【国际批发】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连石重(商品重量)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 请从以下挑选：1个属性值【4,5,6,7,8,9,10,11,12,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,3,27,28,29,30,31,32,33,开口】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 请从以下挑选：1个属性值【1,1.5,2,2.5,3,3.5,4,4.5,5,5.5,6,6.5,7,7.5,8,8.5,9,9.5,10,10.5,11,11.5,12,12.5,13,13.5,14,14.5,15,16,16.5,17,开口】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 请从以下挑选：1个【D,E,F,G,H,GH,I,J,K,IJ,L,M,N,不分级,其它】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  请从以下挑选：1个【FL,IF,VVS1,VVS2,VS1,VS2,SI1,SI2,SI,P1,P2,P3,不分级】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  请从以下挑选：1个属性值【1K,9K,10K,14K,18K,Au999,Au990,Au9999,Pt950,Pt900,Pt990,Pd,Ag925,Ag999,铜,合金,不锈钢】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  请从以下挑选：1个属性值【黄色,炫彩,黑色,三分色,白色,柠檬黄,红色,二分色,紫色】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请从以下挑选1个填写：【USD】【HKD】【TWD】【CNY】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请从以下挑选1个填写【中文简体】【中文繁体】【English】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单总金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单其它费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单总金额=商品总金额+订单其它费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请填写数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   默认：0
+（请填写数字）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请从以下挑选：1个属性值 【钻石,立方氧化锆,锆石,莫桑石,红宝石,蓝宝石,宝石,玉石,和田玉,翡翠,珍珠,贝母,青金石,珊瑚,砗磲,晶石(水晶),猫眼石,松石,玉髓,紫牙乌,橄榄石,彩虹石,月光石,碧玺,欧泊,树脂,黄虎石,玛瑙,金砂石,贝珠,琥珀,石榴石,拖帕石,陶瓷,葡萄石,蜜蜡,其它】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主石类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请从以下挑选：1个属性值【钻石,立方氧化锆,锆石,莫桑石,红宝石,蓝宝石,宝石,玉石,和田玉,翡翠,珍珠,贝母,青金石,珊瑚,砗磲,晶石(水晶),猫眼石,松石,玉髓,紫牙乌,橄榄石,彩虹石,月光石,碧玺,欧泊,树脂,黄虎石,玛瑙,金砂石,贝珠,琥珀,石榴石,拖帕石,陶瓷,葡萄石,蜜蜡,其它】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副石1类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请填写数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如：链长等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请填写数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    请填写数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一个订单的填写相同订单号，系统会自动合并订单商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户编号和邮箱必填1个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>商品价格</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副石1重(ct)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手寸(美号)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手寸(港号)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>订单编号</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERP系统账号名，不填默认当前操作人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请填写【国际批发】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连石重(商品重量)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 请从以下挑选：1个属性值【4,5,6,7,8,9,10,11,12,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,3,27,28,29,30,31,32,33,开口】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 请从以下挑选：1个属性值【1,1.5,2,2.5,3,3.5,4,4.5,5,5.5,6,6.5,7,7.5,8,8.5,9,9.5,10,10.5,11,11.5,12,12.5,13,13.5,14,14.5,15,16,16.5,17,开口】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 请从以下挑选：1个【D,E,F,G,H,GH,I,J,K,IJ,L,M,N,不分级,其它】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  请从以下挑选：1个【FL,IF,VVS1,VVS2,VS1,VS2,SI1,SI2,SI,P1,P2,P3,不分级】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  请从以下挑选：1个属性值【1K,9K,10K,14K,18K,Au999,Au990,Au9999,Pt950,Pt900,Pt990,Pd,Ag925,Ag999,铜,合金,不锈钢】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  请从以下挑选：1个属性值【黄色,炫彩,黑色,三分色,白色,柠檬黄,红色,二分色,紫色】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请从以下挑选1个填写：【USD】【HKD】【TWD】【CNY】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请从以下挑选1个填写【中文简体】【中文繁体】【English】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单总金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单其它费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单总金额=商品总金额+订单其它费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请填写数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   默认：0
-（请填写数字）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请从以下挑选：1个属性值 【钻石,立方氧化锆,锆石,莫桑石,红宝石,蓝宝石,宝石,玉石,和田玉,翡翠,珍珠,贝母,青金石,珊瑚,砗磲,晶石(水晶),猫眼石,松石,玉髓,紫牙乌,橄榄石,彩虹石,月光石,碧玺,欧泊,树脂,黄虎石,玛瑙,金砂石,贝珠,琥珀,石榴石,拖帕石,陶瓷,葡萄石,蜜蜡,其它】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主石类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请从以下挑选：1个属性值【钻石,立方氧化锆,锆石,莫桑石,红宝石,蓝宝石,宝石,玉石,和田玉,翡翠,珍珠,贝母,青金石,珊瑚,砗磲,晶石(水晶),猫眼石,松石,玉髓,紫牙乌,橄榄石,彩虹石,月光石,碧玺,欧泊,树脂,黄虎石,玛瑙,金砂石,贝珠,琥珀,石榴石,拖帕石,陶瓷,葡萄石,蜜蜡,其它】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副石1类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请填写数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品实际成交金额
-(请填写数字)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如：链长等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请填写数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    请填写数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同一个订单的填写相同订单号，系统会自动合并订单商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户编号和邮箱必填1个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户编号</t>
+      <t>商品单价</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品实际成交价格(请填写数字)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -777,7 +776,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -787,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -828,96 +827,96 @@
   <sheetData>
     <row r="1" spans="1:33" s="1" customFormat="1" ht="106.5" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="P1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="22.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>21</v>
@@ -935,16 +934,16 @@
         <v>19</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>2</v>
@@ -965,22 +964,22 @@
         <v>20</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>15</v>
@@ -998,10 +997,10 @@
         <v>11</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>4</v>
@@ -1018,7 +1017,7 @@
     </row>
     <row r="7" spans="1:33">
       <c r="H7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
